--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muny\Documents\GitHub\duq_open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF63132D-01BD-454A-8660-76DBDAFE50BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A92C1D8-5F23-49FA-B584-03A7CEE69013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7FB3EBEA-EBC4-4902-A197-6AE13CD2CD2C}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +627,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>123456</v>
+        <v>123457</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>123456</v>
+        <v>123458</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>123456</v>
+        <v>123459</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muny\Documents\GitHub\duq_open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A92C1D8-5F23-49FA-B584-03A7CEE69013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DBB4B4-98B3-4BEA-897D-8723E130C12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7FB3EBEA-EBC4-4902-A197-6AE13CD2CD2C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
   <si>
     <t>Article</t>
   </si>
@@ -150,6 +150,276 @@
   </si>
   <si>
     <t>Undergraduate Student</t>
+  </si>
+  <si>
+    <t>PIIDATA1</t>
+  </si>
+  <si>
+    <t>PIIDATA2</t>
+  </si>
+  <si>
+    <t>PIIDATA3</t>
+  </si>
+  <si>
+    <t>PIIDATA4</t>
+  </si>
+  <si>
+    <t>PIIDATA5</t>
+  </si>
+  <si>
+    <t>PIIDATA6</t>
+  </si>
+  <si>
+    <t>PIIDATA7</t>
+  </si>
+  <si>
+    <t>PIIDATA8</t>
+  </si>
+  <si>
+    <t>PIIDATA9</t>
+  </si>
+  <si>
+    <t>PIIDATA10</t>
+  </si>
+  <si>
+    <t>PIIDATA11</t>
+  </si>
+  <si>
+    <t>PIIDATA12</t>
+  </si>
+  <si>
+    <t>PIIDATA13</t>
+  </si>
+  <si>
+    <t>PIIDATA14</t>
+  </si>
+  <si>
+    <t>PIIDATA15</t>
+  </si>
+  <si>
+    <t>PIIDATA16</t>
+  </si>
+  <si>
+    <t>PIIDATA17</t>
+  </si>
+  <si>
+    <t>PIIDATA18</t>
+  </si>
+  <si>
+    <t>abd123</t>
+  </si>
+  <si>
+    <t>abd124</t>
+  </si>
+  <si>
+    <t>abd125</t>
+  </si>
+  <si>
+    <t>abd126</t>
+  </si>
+  <si>
+    <t>abd127</t>
+  </si>
+  <si>
+    <t>abd128</t>
+  </si>
+  <si>
+    <t>abd129</t>
+  </si>
+  <si>
+    <t>abd130</t>
+  </si>
+  <si>
+    <t>abd131</t>
+  </si>
+  <si>
+    <t>abd132</t>
+  </si>
+  <si>
+    <t>abd133</t>
+  </si>
+  <si>
+    <t>abd134</t>
+  </si>
+  <si>
+    <t>abd135</t>
+  </si>
+  <si>
+    <t>abd136</t>
+  </si>
+  <si>
+    <t>abd137</t>
+  </si>
+  <si>
+    <t>abd138</t>
+  </si>
+  <si>
+    <t>abd139</t>
+  </si>
+  <si>
+    <t>abd140</t>
+  </si>
+  <si>
+    <t>efg456</t>
+  </si>
+  <si>
+    <t>efg457</t>
+  </si>
+  <si>
+    <t>efg458</t>
+  </si>
+  <si>
+    <t>efg459</t>
+  </si>
+  <si>
+    <t>efg460</t>
+  </si>
+  <si>
+    <t>efg461</t>
+  </si>
+  <si>
+    <t>efg462</t>
+  </si>
+  <si>
+    <t>efg463</t>
+  </si>
+  <si>
+    <t>efg464</t>
+  </si>
+  <si>
+    <t>efg465</t>
+  </si>
+  <si>
+    <t>efg466</t>
+  </si>
+  <si>
+    <t>efg467</t>
+  </si>
+  <si>
+    <t>efg468</t>
+  </si>
+  <si>
+    <t>efg469</t>
+  </si>
+  <si>
+    <t>efg470</t>
+  </si>
+  <si>
+    <t>efg471</t>
+  </si>
+  <si>
+    <t>efg472</t>
+  </si>
+  <si>
+    <t>efg473</t>
+  </si>
+  <si>
+    <t>hij789</t>
+  </si>
+  <si>
+    <t>hij790</t>
+  </si>
+  <si>
+    <t>hij791</t>
+  </si>
+  <si>
+    <t>hij792</t>
+  </si>
+  <si>
+    <t>hij793</t>
+  </si>
+  <si>
+    <t>hij794</t>
+  </si>
+  <si>
+    <t>hij795</t>
+  </si>
+  <si>
+    <t>hij796</t>
+  </si>
+  <si>
+    <t>hij797</t>
+  </si>
+  <si>
+    <t>hij798</t>
+  </si>
+  <si>
+    <t>hij799</t>
+  </si>
+  <si>
+    <t>hij800</t>
+  </si>
+  <si>
+    <t>hij801</t>
+  </si>
+  <si>
+    <t>hij802</t>
+  </si>
+  <si>
+    <t>hij803</t>
+  </si>
+  <si>
+    <t>hij804</t>
+  </si>
+  <si>
+    <t>hij805</t>
+  </si>
+  <si>
+    <t>hij806</t>
+  </si>
+  <si>
+    <t>klm098</t>
+  </si>
+  <si>
+    <t>klm099</t>
+  </si>
+  <si>
+    <t>klm100</t>
+  </si>
+  <si>
+    <t>klm101</t>
+  </si>
+  <si>
+    <t>klm102</t>
+  </si>
+  <si>
+    <t>klm103</t>
+  </si>
+  <si>
+    <t>klm104</t>
+  </si>
+  <si>
+    <t>klm105</t>
+  </si>
+  <si>
+    <t>klm106</t>
+  </si>
+  <si>
+    <t>klm107</t>
+  </si>
+  <si>
+    <t>klm108</t>
+  </si>
+  <si>
+    <t>klm109</t>
+  </si>
+  <si>
+    <t>klm110</t>
+  </si>
+  <si>
+    <t>klm111</t>
+  </si>
+  <si>
+    <t>klm112</t>
+  </si>
+  <si>
+    <t>klm113</t>
+  </si>
+  <si>
+    <t>klm114</t>
+  </si>
+  <si>
+    <t>klm115</t>
   </si>
 </sst>
 </file>
@@ -159,7 +429,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +445,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +460,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -207,14 +483,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -531,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8199C1C-0858-40A2-8A07-F46C8B91CBED}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +842,7 @@
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -589,8 +879,62 @@
       <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>123456</v>
       </c>
@@ -624,8 +968,62 @@
       <c r="L2" t="s">
         <v>2</v>
       </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>123457</v>
       </c>
@@ -659,8 +1057,62 @@
       <c r="L3" t="s">
         <v>14</v>
       </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>123458</v>
       </c>
@@ -691,8 +1143,62 @@
       <c r="L4" t="s">
         <v>2</v>
       </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U4" t="s">
+        <v>99</v>
+      </c>
+      <c r="V4" t="s">
+        <v>100</v>
+      </c>
+      <c r="W4" t="s">
+        <v>101</v>
+      </c>
+      <c r="X4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>123459</v>
       </c>
@@ -726,8 +1232,63 @@
       <c r="L5" t="s">
         <v>12</v>
       </c>
+      <c r="M5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" t="s">
+        <v>114</v>
+      </c>
+      <c r="S5" t="s">
+        <v>115</v>
+      </c>
+      <c r="T5" t="s">
+        <v>116</v>
+      </c>
+      <c r="U5" t="s">
+        <v>117</v>
+      </c>
+      <c r="V5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W5" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>